--- a/Node_Information/West_SM_Outer.xlsx
+++ b/Node_Information/West_SM_Outer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsat27828\Desktop\ThermalMap_NodeGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t25944\Desktop\Small-GEO\Thermo-Elastic\Delta CDR\Coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F302CDB8-8B06-4230-98B7-DC2D1D8D129B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <t>Solution Name :</t>
   </si>
   <si>
-    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : EQNXBOL_Thermoelastic</t>
+    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : JSEOL_Delta_CDR</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -44,7 +45,7 @@
     <t>Iteration :</t>
   </si>
   <si>
-    <t>Increment 33, 9.024E+04s</t>
+    <t>Increment 6, 1.200E+03s</t>
   </si>
   <si>
     <t>Result :</t>
@@ -101,11 +102,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="##0.000E+0"/>
+    <numFmt numFmtId="168" formatCode="##0.000E+0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,18 +149,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,762 +439,890 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>270853</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="B13" s="1">
+        <v>203233</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F13" s="3">
         <v>-767.1728515625</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>18.294038772583001</v>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>8.8708906173706108</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>270854</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="B14" s="1">
+        <v>203234</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F14" s="3">
         <v>-460.74572753906301</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>18.674249649047901</v>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>8.8063936233520508</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>270855</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="1">
+        <v>203235</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F15" s="3">
         <v>-154.31858825683599</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>19.187803268432599</v>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>8.5204439163208008</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>270856</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="1">
+        <v>203236</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F16" s="3">
         <v>152.10855102539099</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>19.266233444213899</v>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>8.4948606491088903</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>270857</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="1">
+        <v>203237</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F17" s="3">
         <v>458.53570556640602</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>18.917514801025401</v>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>8.6929025650024396</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>270858</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="1">
+        <v>203238</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F18" s="3">
         <v>764.96282958984398</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>18.9267253875732</v>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>8.7630205154418892</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>270859</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="1">
+        <v>203239</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F19" s="3">
         <v>-767.1728515625</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>19.217279434204102</v>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>9.2662315368652308</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>270860</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="B20" s="1">
+        <v>203240</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F20" s="3">
         <v>-460.74572753906301</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>19.684080123901399</v>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>9.1503677368164098</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>270861</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="1">
+        <v>203241</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F21" s="3">
         <v>-154.31858825683599</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>20.3360996246338</v>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>8.7841148376464808</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>270862</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="1">
+        <v>203242</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F22" s="3">
         <v>152.10855102539099</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>20.439912796020501</v>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>8.8692293167114293</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>270863</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="1">
+        <v>203243</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F23" s="3">
         <v>458.53570556640602</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>19.817857742309599</v>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>8.9704952239990199</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>270864</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="1">
+        <v>203244</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F24" s="3">
         <v>764.96282958984398</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>19.529098510742202</v>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>8.8876228332519496</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>270865</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="B25" s="1">
+        <v>203245</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F25" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>19.063421249389599</v>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>9.15508937835693</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>270866</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="B26" s="1">
+        <v>203246</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>18.2370719909668</v>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>8.8546838760375994</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>270867</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="B27" s="1">
+        <v>203247</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F27" s="3">
         <v>764.96282958984398</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>20.1866569519043</v>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>9.1374654769897496</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>270868</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="B28" s="1">
+        <v>203248</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F28" s="3">
         <v>458.53570556640602</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>20.7012748718262</v>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>9.3173675537109393</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>270869</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="B29" s="1">
+        <v>203249</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F29" s="3">
         <v>152.10855102539099</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>21.533493041992202</v>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>9.4129400253295898</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>270870</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="B30" s="1">
+        <v>203250</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F30" s="3">
         <v>-154.31858825683599</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>21.4305515289307</v>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>9.2711391448974592</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>270871</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="B31" s="1">
+        <v>203251</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F31" s="3">
         <v>-460.74572753906301</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>20.5978088378906</v>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>9.4562225341796893</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>270872</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="B32" s="1">
+        <v>203252</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F32" s="3">
         <v>-767.1728515625</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <v>19.9686393737793</v>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>9.5613784790039098</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>270873</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="1">
+        <v>203253</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F33" s="3">
         <v>-767.1728515625</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>17.9822292327881</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>8.7326765060424805</v>
+      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>270874</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="B34" s="1">
+        <v>203254</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F34" s="3">
         <v>-460.74572753906301</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>18.423225402831999</v>
-      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>8.7238607406616193</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>270875</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="B35" s="1">
+        <v>203255</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F35" s="3">
         <v>-154.31858825683599</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>18.982612609863299</v>
-      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>8.6732378005981392</v>
+      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>270876</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="B36" s="1">
+        <v>203256</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F36" s="3">
         <v>152.10855102539099</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>19.061195373535199</v>
-      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>8.6438350677490199</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>270877</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="B37" s="1">
+        <v>203257</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F37" s="3">
         <v>458.53570556640602</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <v>18.7730102539063</v>
-      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>8.7302703857421893</v>
+      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>270878</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="B38" s="1">
+        <v>203258</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F38" s="3">
         <v>764.96282958984398</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>18.863676071166999</v>
-      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>8.8423576354980504</v>
+      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>270879</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="B39" s="1">
+        <v>203259</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F39" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>575.48162841796898</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
-        <v>19.207939147949201</v>
-      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>8.8233947753906303</v>
+      </c>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>270880</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="B40" s="1">
+        <v>203260</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F40" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>281.163330078125</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
-        <v>19.679956436157202</v>
-      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>8.96185207366943</v>
+      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>270881</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="B41" s="1">
+        <v>203261</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F41" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
-        <v>19.683092117309599</v>
-      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>9.4071559906005895</v>
+      </c>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>270882</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="B42" s="1">
+        <v>203262</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F42" s="3">
         <v>-1073.60009765625</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2">
-        <v>17.8495693206787</v>
-      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>8.7293071746826207</v>
+      </c>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>270883</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="B43" s="1">
+        <v>203263</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F43" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>-13.155000686645501</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
-        <v>20.182233810424801</v>
-      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>9.1706380844116193</v>
+      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>270884</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4">
-        <v>-1199.49987792969</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="B44" s="1">
+        <v>203264</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>-1199.49987792969</v>
+      </c>
+      <c r="F44" s="3">
         <v>1071.39001464844</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>869.800048828125</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
-        <v>19.12473487854</v>
-      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>8.8727092742919904</v>
+      </c>
+      <c r="J44" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="2">
-        <v>17.8495693206787</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="3">
+        <v>8.4948606491088903</v>
+      </c>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="3">
-        <v>270882</v>
-      </c>
-      <c r="J47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="4">
+        <v>203236</v>
+      </c>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="2">
-        <v>21.533493041992202</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="3">
+        <v>9.5613784790039098</v>
+      </c>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="3">
-        <v>270869</v>
-      </c>
-      <c r="J49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="4">
+        <v>203252</v>
+      </c>
+      <c r="J49" s="4"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="2">
-        <v>621.82330322265602</v>
-      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="3">
+        <v>286.55416870117199</v>
+      </c>
+      <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="2">
-        <v>19.431978225708001</v>
-      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="3">
+        <v>8.9548177719116193</v>
+      </c>
+      <c r="J52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>